--- a/data/spam_dataset.xlsx
+++ b/data/spam_dataset.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">my name is </t>
   </si>
@@ -112,6 +112,30 @@
     <t xml:space="preserve">send </t>
   </si>
   <si>
+    <t xml:space="preserve">selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclusive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lottery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transfer</t>
+  </si>
+  <si>
     <t xml:space="preserve">sale</t>
   </si>
   <si>
@@ -127,67 +151,97 @@
     <t xml:space="preserve">account</t>
   </si>
   <si>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subscribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drvgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">won</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last chance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last </t>
+  </si>
+  <si>
+    <t xml:space="preserve">limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go</t>
+  </si>
+  <si>
     <t xml:space="preserve">virus</t>
   </si>
   <si>
     <t xml:space="preserve">erotic</t>
   </si>
   <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subscribe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last chance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last </t>
-  </si>
-  <si>
-    <t xml:space="preserve">chance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drvgs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">won</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collect </t>
+    <t xml:space="preserve">fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
   </si>
 </sst>
 </file>
@@ -197,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -224,15 +278,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -280,16 +327,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -482,13 +525,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C67" activeCellId="0" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -647,7 +690,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,7 +698,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,7 +706,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,7 +722,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,7 +738,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,7 +746,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,7 +754,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,19 +770,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
@@ -747,7 +790,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
@@ -755,63 +798,63 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>2</v>
+      <c r="B35" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>3</v>
+      <c r="B40" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="0" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="0" t="n">
@@ -819,43 +862,43 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>2</v>
+      <c r="B43" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="0" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="0" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -879,7 +922,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -887,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -895,7 +938,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -911,7 +954,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -919,7 +962,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -927,7 +970,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -935,12 +978,156 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
